--- a/HR.xlsx
+++ b/HR.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>No.</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>http://www.lightspeedcp.com/</t>
+  </si>
+  <si>
+    <t>Glow_Inc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jobs.cn@glowing.com</t>
   </si>
 </sst>
 </file>
@@ -474,10 +480,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,9 +661,23 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="J7" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/HR.xlsx
+++ b/HR.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>No.</t>
   </si>
@@ -123,13 +123,31 @@
     <t>quantitative and analytic background；excel </t>
   </si>
   <si>
-    <t>http://www.lightspeedcp.com/</t>
-  </si>
-  <si>
     <t>Glow_Inc</t>
   </si>
   <si>
     <t xml:space="preserve"> jobs.cn@glowing.com</t>
+  </si>
+  <si>
+    <t>网易</t>
+  </si>
+  <si>
+    <t>用户研究员（杭州）J3681，请在2015年8月15日零点前填写您的简历并完成投递，逾期将无法投递。【填写简历请点击这里】</t>
+  </si>
+  <si>
+    <t>ycp</t>
+  </si>
+  <si>
+    <t>用户研究院</t>
+  </si>
+  <si>
+    <t>腾讯</t>
+  </si>
+  <si>
+    <t>产品培训生</t>
+  </si>
+  <si>
+    <t>priority</t>
   </si>
 </sst>
 </file>
@@ -186,13 +204,30 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -480,27 +515,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,185 +544,314 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="2">
-        <v>42207</v>
       </c>
       <c r="F2" s="2">
         <v>42207</v>
       </c>
-      <c r="G2" s="5" t="str">
-        <f>IF((F2-E2)&gt;0,(F2-E2),"Closed")</f>
+      <c r="G2" s="2">
+        <v>42207</v>
+      </c>
+      <c r="H2" s="5" t="str">
+        <f ca="1">IF((G2-TODAY())&gt;0,(G2-TODAY()),"Closed")</f>
         <v>Closed</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
         <v>42209</v>
       </c>
-      <c r="G3" s="5" t="str">
-        <f t="shared" ref="G3:G5" si="0">IF((F3-E3)&gt;0,(F3-E3),"Closed")</f>
+      <c r="H3" s="5" t="str">
+        <f t="shared" ref="H3:H9" ca="1" si="0">IF((G3-TODAY())&gt;0,(G3-TODAY()),"Closed")</f>
         <v>Closed</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
         <v>42209</v>
       </c>
-      <c r="G4" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="H4" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>Closed</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
         <v>42208</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>42247</v>
       </c>
-      <c r="G5" s="5">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="H5" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>27</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>25</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>42208</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Closed</v>
+      </c>
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Closed</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" t="s">
         <v>34</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2">
+        <v>42231</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2">
+        <v>42231</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="L5" r:id="rId1"/>
-    <hyperlink ref="J5" r:id="rId2"/>
-    <hyperlink ref="L6" r:id="rId3"/>
+    <hyperlink ref="M5" r:id="rId1"/>
+    <hyperlink ref="K5" r:id="rId2"/>
+    <hyperlink ref="M6" r:id="rId3"/>
+    <hyperlink ref="I8" r:id="rId4" display="http://campus.163.com/recommend2016/fillResume.do?p=9o4QXM5eb-V1DpJINJmaOXHg7lznYsw4MGB5VrLJqAmRqwCstNJggAZ2k-Tl6rNuo6HJLh4RkcFDglY6NpFFI_p-6T5QpNX0WuTkkqSB4wfBgWgnF3ENVt_KNUH0TCmtgxG-v2fM8MP6EQMaf0ag_r6c4keOlKvFRCtl7-vAc4jpwYcFGXj7Lul0WdHEUXENwaYDzUUbMyrNqM93ykIwIa10Dc1C2SZGaSwXaftuPd9W5Z7HcbjIVky0gTcSp9pbBVSdvsFhev9hT0yHig9T4A-roUrBXGsvaMGia5XfCwxlxqJoqh1KsOdHZW2d-jfIaSAWLwc_KTy19zYy4A4lfX8fGFlJ4smhbqfH44ZMQTI-MEtCCKvm-nRrUPKN2dpixsinI_1tRgkS4OcZE0qaSg16ecPs_fuPonwXTP9O4YJJd7xVheJQP98pgrl4LgyEbIa96XdmqKlEg05YbHdL7DCIhs_Bgt3DYxhb2bmgFweOM0ugYqLozg!!"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/HR.xlsx
+++ b/HR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yuqing\mine\school\简历\CV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-yuqwe\Documents\GitHub\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>No.</t>
   </si>
@@ -148,6 +148,30 @@
   </si>
   <si>
     <t>priority</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>http://xyzold.51job.com/external/Others/JobsSelect.aspx?JobID=0a17313c-af78-475e-9123-1525d29399c7&amp;CtmID=85ee78fc-fc2d-4458-8164-13e73f313153&amp;JobSelectType=0</t>
+  </si>
+  <si>
+    <t>用户名：邮箱；密码：Cang0722</t>
+  </si>
+  <si>
+    <t>已提交</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>简历已经提交成功，简历ID为273721，你可以在简历投递截止日期之前继续完善简历。</t>
   </si>
 </sst>
 </file>
@@ -177,12 +201,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -198,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -207,19 +237,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -515,10 +541,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,13 +556,14 @@
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,23 +588,23 @@
       <c r="H1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -585,7 +612,7 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -603,17 +630,17 @@
         <f ca="1">IF((G2-TODAY())&gt;0,(G2-TODAY()),"Closed")</f>
         <v>Closed</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -627,20 +654,20 @@
         <v>42209</v>
       </c>
       <c r="H3" s="5" t="str">
-        <f t="shared" ref="H3:H9" ca="1" si="0">IF((G3-TODAY())&gt;0,(G3-TODAY()),"Closed")</f>
+        <f t="shared" ref="H3:H10" ca="1" si="0">IF((G3-TODAY())&gt;0,(G3-TODAY()),"Closed")</f>
         <v>Closed</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -657,11 +684,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>Closed</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -679,22 +706,22 @@
       </c>
       <c r="H5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
         <v>31</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>27</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>25</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -714,14 +741,14 @@
         <f t="shared" ca="1" si="0"/>
         <v>Closed</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -735,11 +762,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>Closed</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -757,13 +784,16 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -781,40 +811,77 @@
       </c>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="2">
+        <v>42228</v>
+      </c>
+      <c r="G10" s="2">
+        <v>42231</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -830,10 +897,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="H1:I1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -844,14 +908,18 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="M5" r:id="rId1"/>
-    <hyperlink ref="K5" r:id="rId2"/>
-    <hyperlink ref="M6" r:id="rId3"/>
-    <hyperlink ref="I8" r:id="rId4" display="http://campus.163.com/recommend2016/fillResume.do?p=9o4QXM5eb-V1DpJINJmaOXHg7lznYsw4MGB5VrLJqAmRqwCstNJggAZ2k-Tl6rNuo6HJLh4RkcFDglY6NpFFI_p-6T5QpNX0WuTkkqSB4wfBgWgnF3ENVt_KNUH0TCmtgxG-v2fM8MP6EQMaf0ag_r6c4keOlKvFRCtl7-vAc4jpwYcFGXj7Lul0WdHEUXENwaYDzUUbMyrNqM93ykIwIa10Dc1C2SZGaSwXaftuPd9W5Z7HcbjIVky0gTcSp9pbBVSdvsFhev9hT0yHig9T4A-roUrBXGsvaMGia5XfCwxlxqJoqh1KsOdHZW2d-jfIaSAWLwc_KTy19zYy4A4lfX8fGFlJ4smhbqfH44ZMQTI-MEtCCKvm-nRrUPKN2dpixsinI_1tRgkS4OcZE0qaSg16ecPs_fuPonwXTP9O4YJJd7xVheJQP98pgrl4LgyEbIa96XdmqKlEg05YbHdL7DCIhs_Bgt3DYxhb2bmgFweOM0ugYqLozg!!"/>
+    <hyperlink ref="N5" r:id="rId1"/>
+    <hyperlink ref="L5" r:id="rId2"/>
+    <hyperlink ref="N6" r:id="rId3"/>
+    <hyperlink ref="J8" r:id="rId4" display="http://campus.163.com/recommend2016/fillResume.do?p=9o4QXM5eb-V1DpJINJmaOXHg7lznYsw4MGB5VrLJqAmRqwCstNJggAZ2k-Tl6rNuo6HJLh4RkcFDglY6NpFFI_p-6T5QpNX0WuTkkqSB4wfBgWgnF3ENVt_KNUH0TCmtgxG-v2fM8MP6EQMaf0ag_r6c4keOlKvFRCtl7-vAc4jpwYcFGXj7Lul0WdHEUXENwaYDzUUbMyrNqM93ykIwIa10Dc1C2SZGaSwXaftuPd9W5Z7HcbjIVky0gTcSp9pbBVSdvsFhev9hT0yHig9T4A-roUrBXGsvaMGia5XfCwxlxqJoqh1KsOdHZW2d-jfIaSAWLwc_KTy19zYy4A4lfX8fGFlJ4smhbqfH44ZMQTI-MEtCCKvm-nRrUPKN2dpixsinI_1tRgkS4OcZE0qaSg16ecPs_fuPonwXTP9O4YJJd7xVheJQP98pgrl4LgyEbIa96XdmqKlEg05YbHdL7DCIhs_Bgt3DYxhb2bmgFweOM0ugYqLozg!!"/>
+    <hyperlink ref="L10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/HR.xlsx
+++ b/HR.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>No.</t>
   </si>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>简历已经提交成功，简历ID为273721，你可以在简历投递截止日期之前继续完善简历。</t>
+  </si>
+  <si>
+    <t>爱奇艺</t>
+  </si>
+  <si>
+    <t>http://zhaopin.iqiyi.com/</t>
+  </si>
+  <si>
+    <t>产品设计师</t>
+  </si>
+  <si>
+    <t>zhouhong@qiyi.com</t>
   </si>
 </sst>
 </file>
@@ -543,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +718,7 @@
       </c>
       <c r="H5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
@@ -784,7 +796,7 @@
       </c>
       <c r="H8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>46</v>
@@ -811,7 +823,7 @@
       </c>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>46</v>
@@ -844,7 +856,7 @@
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>47</v>
@@ -859,6 +871,27 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -918,8 +951,10 @@
     <hyperlink ref="N6" r:id="rId3"/>
     <hyperlink ref="J8" r:id="rId4" display="http://campus.163.com/recommend2016/fillResume.do?p=9o4QXM5eb-V1DpJINJmaOXHg7lznYsw4MGB5VrLJqAmRqwCstNJggAZ2k-Tl6rNuo6HJLh4RkcFDglY6NpFFI_p-6T5QpNX0WuTkkqSB4wfBgWgnF3ENVt_KNUH0TCmtgxG-v2fM8MP6EQMaf0ag_r6c4keOlKvFRCtl7-vAc4jpwYcFGXj7Lul0WdHEUXENwaYDzUUbMyrNqM93ykIwIa10Dc1C2SZGaSwXaftuPd9W5Z7HcbjIVky0gTcSp9pbBVSdvsFhev9hT0yHig9T4A-roUrBXGsvaMGia5XfCwxlxqJoqh1KsOdHZW2d-jfIaSAWLwc_KTy19zYy4A4lfX8fGFlJ4smhbqfH44ZMQTI-MEtCCKvm-nRrUPKN2dpixsinI_1tRgkS4OcZE0qaSg16ecPs_fuPonwXTP9O4YJJd7xVheJQP98pgrl4LgyEbIa96XdmqKlEg05YbHdL7DCIhs_Bgt3DYxhb2bmgFweOM0ugYqLozg!!"/>
     <hyperlink ref="L10" r:id="rId5"/>
+    <hyperlink ref="L11" r:id="rId6"/>
+    <hyperlink ref="M11" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/HR.xlsx
+++ b/HR.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>No.</t>
   </si>
@@ -147,9 +147,6 @@
     <t>产品培训生</t>
   </si>
   <si>
-    <t>priority</t>
-  </si>
-  <si>
     <t>？</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>简历已经提交成功，简历ID为273721，你可以在简历投递截止日期之前继续完善简历。</t>
   </si>
   <si>
-    <t>爱奇艺</t>
-  </si>
-  <si>
     <t>http://zhaopin.iqiyi.com/</t>
   </si>
   <si>
@@ -184,6 +178,24 @@
   </si>
   <si>
     <t>zhouhong@qiyi.com</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>Possi</t>
+  </si>
+  <si>
+    <t>爱奇艺-周虹内推</t>
+  </si>
+  <si>
+    <t>百度</t>
+  </si>
+  <si>
+    <t>商业产品经理</t>
+  </si>
+  <si>
+    <t>http://talent.baidu.com/external/baidu/campus.html#/jobList</t>
   </si>
 </sst>
 </file>
@@ -553,29 +565,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,40 +595,43 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -626,33 +641,33 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="2">
-        <v>42207</v>
       </c>
       <c r="G2" s="2">
         <v>42207</v>
       </c>
-      <c r="H2" s="5" t="str">
-        <f ca="1">IF((G2-TODAY())&gt;0,(G2-TODAY()),"Closed")</f>
+      <c r="H2" s="2">
+        <v>42207</v>
+      </c>
+      <c r="I2" s="5" t="str">
+        <f ca="1">IF((H2-TODAY())&gt;0,(H2-TODAY()),"Closed")</f>
         <v>Closed</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -662,24 +677,24 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>42209</v>
       </c>
-      <c r="H3" s="5" t="str">
-        <f t="shared" ref="H3:H10" ca="1" si="0">IF((G3-TODAY())&gt;0,(G3-TODAY()),"Closed")</f>
+      <c r="I3" s="5" t="str">
+        <f t="shared" ref="I3:I12" ca="1" si="0">IF((H3-TODAY())&gt;0,(H3-TODAY()),"Closed")</f>
         <v>Closed</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>15</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -689,18 +704,18 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>42209</v>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="I4" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Closed</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -710,30 +725,30 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>42208</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>42247</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
         <v>31</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>27</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>25</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -743,24 +758,24 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>42208</v>
       </c>
-      <c r="H6" s="5" t="str">
+      <c r="I6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Closed</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -770,15 +785,15 @@
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="H7" s="5" t="str">
+      <c r="I7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Closed</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -788,24 +803,24 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>42231</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="4" t="s">
+        <v>Closed</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -815,106 +830,132 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>42231</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>Closed</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2">
+        <v>42228</v>
+      </c>
+      <c r="H10" s="2">
+        <v>42231</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Closed</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="2">
-        <v>42228</v>
-      </c>
-      <c r="G10" s="2">
-        <v>42231</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
       <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2">
+        <v>42242</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Closed</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="2">
+        <v>42243</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Closed</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -930,7 +971,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:I1048576">
+  <conditionalFormatting sqref="I1:J1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -946,15 +987,16 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="N5" r:id="rId1"/>
-    <hyperlink ref="L5" r:id="rId2"/>
-    <hyperlink ref="N6" r:id="rId3"/>
-    <hyperlink ref="J8" r:id="rId4" display="http://campus.163.com/recommend2016/fillResume.do?p=9o4QXM5eb-V1DpJINJmaOXHg7lznYsw4MGB5VrLJqAmRqwCstNJggAZ2k-Tl6rNuo6HJLh4RkcFDglY6NpFFI_p-6T5QpNX0WuTkkqSB4wfBgWgnF3ENVt_KNUH0TCmtgxG-v2fM8MP6EQMaf0ag_r6c4keOlKvFRCtl7-vAc4jpwYcFGXj7Lul0WdHEUXENwaYDzUUbMyrNqM93ykIwIa10Dc1C2SZGaSwXaftuPd9W5Z7HcbjIVky0gTcSp9pbBVSdvsFhev9hT0yHig9T4A-roUrBXGsvaMGia5XfCwxlxqJoqh1KsOdHZW2d-jfIaSAWLwc_KTy19zYy4A4lfX8fGFlJ4smhbqfH44ZMQTI-MEtCCKvm-nRrUPKN2dpixsinI_1tRgkS4OcZE0qaSg16ecPs_fuPonwXTP9O4YJJd7xVheJQP98pgrl4LgyEbIa96XdmqKlEg05YbHdL7DCIhs_Bgt3DYxhb2bmgFweOM0ugYqLozg!!"/>
-    <hyperlink ref="L10" r:id="rId5"/>
-    <hyperlink ref="L11" r:id="rId6"/>
-    <hyperlink ref="M11" r:id="rId7"/>
+    <hyperlink ref="O5" r:id="rId1"/>
+    <hyperlink ref="M5" r:id="rId2"/>
+    <hyperlink ref="O6" r:id="rId3"/>
+    <hyperlink ref="K8" r:id="rId4" display="http://campus.163.com/recommend2016/fillResume.do?p=9o4QXM5eb-V1DpJINJmaOXHg7lznYsw4MGB5VrLJqAmRqwCstNJggAZ2k-Tl6rNuo6HJLh4RkcFDglY6NpFFI_p-6T5QpNX0WuTkkqSB4wfBgWgnF3ENVt_KNUH0TCmtgxG-v2fM8MP6EQMaf0ag_r6c4keOlKvFRCtl7-vAc4jpwYcFGXj7Lul0WdHEUXENwaYDzUUbMyrNqM93ykIwIa10Dc1C2SZGaSwXaftuPd9W5Z7HcbjIVky0gTcSp9pbBVSdvsFhev9hT0yHig9T4A-roUrBXGsvaMGia5XfCwxlxqJoqh1KsOdHZW2d-jfIaSAWLwc_KTy19zYy4A4lfX8fGFlJ4smhbqfH44ZMQTI-MEtCCKvm-nRrUPKN2dpixsinI_1tRgkS4OcZE0qaSg16ecPs_fuPonwXTP9O4YJJd7xVheJQP98pgrl4LgyEbIa96XdmqKlEg05YbHdL7DCIhs_Bgt3DYxhb2bmgFweOM0ugYqLozg!!"/>
+    <hyperlink ref="M10" r:id="rId5"/>
+    <hyperlink ref="M11" r:id="rId6"/>
+    <hyperlink ref="N11" r:id="rId7"/>
+    <hyperlink ref="K12" r:id="rId8" location="/jobList"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/HR.xlsx
+++ b/HR.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="11370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="11370"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="All" sheetId="2" r:id="rId1"/>
+    <sheet name="rule" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>No.</t>
   </si>
@@ -138,9 +138,6 @@
     <t>ycp</t>
   </si>
   <si>
-    <t>用户研究院</t>
-  </si>
-  <si>
     <t>腾讯</t>
   </si>
   <si>
@@ -196,6 +193,54 @@
   </si>
   <si>
     <t>http://talent.baidu.com/external/baidu/campus.html#/jobList</t>
+  </si>
+  <si>
+    <t>项目管理工程师</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>简历</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>笔试</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>面试</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>等待</t>
+  </si>
+  <si>
+    <t>拒绝</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>考虑</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>产品策划</t>
   </si>
 </sst>
 </file>
@@ -553,29 +598,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -595,10 +629,10 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -641,6 +675,9 @@
       <c r="C2">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
@@ -677,6 +714,9 @@
       <c r="C3">
         <v>3</v>
       </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
       <c r="G3" s="2">
         <v>42209</v>
       </c>
@@ -704,6 +744,12 @@
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
       <c r="G4" s="2">
         <v>42209</v>
       </c>
@@ -725,15 +771,18 @@
       <c r="C5">
         <v>3</v>
       </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
       <c r="G5" s="2">
         <v>42208</v>
       </c>
       <c r="H5" s="2">
         <v>42247</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>Closed</v>
       </c>
       <c r="K5" t="s">
         <v>31</v>
@@ -758,6 +807,9 @@
       <c r="C6">
         <v>3</v>
       </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
@@ -785,6 +837,9 @@
       <c r="C7">
         <v>4</v>
       </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
       <c r="I7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Closed</v>
@@ -803,8 +858,11 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2">
         <v>42231</v>
@@ -814,7 +872,7 @@
         <v>Closed</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>35</v>
@@ -825,13 +883,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="2">
         <v>42231</v>
@@ -841,10 +902,10 @@
         <v>Closed</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -852,16 +913,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2">
         <v>42228</v>
@@ -874,13 +938,13 @@
         <v>Closed</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -888,16 +952,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2">
         <v>42242</v>
@@ -907,13 +974,13 @@
         <v>Closed</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -921,13 +988,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="2">
         <v>42243</v>
@@ -937,7 +1007,7 @@
         <v>Closed</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -999,4 +1069,75 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HR.xlsx
+++ b/HR.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="11370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="11370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="2" r:id="rId1"/>
     <sheet name="rule" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
   <si>
     <t>No.</t>
   </si>
@@ -241,6 +242,80 @@
   </si>
   <si>
     <t>产品策划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company </t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>滴滴快的</t>
+  </si>
+  <si>
+    <t>http://campus.xiaojukeji.com/</t>
+  </si>
+  <si>
+    <t>滴滴管培生——运营方向 （专车事业部）</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>运营</t>
+  </si>
+  <si>
+    <t>1.本科及以上学历，计算数学、数理统计和应用心理学相关专业背景者优先，硕士优先
+2.熟练使用各种数理统计、数据分析、工具软件、Excel等
+3.善于学习新知识，新领域，对业务数据分析有浓厚的兴趣
+4.良好的执行及沟通能力、思路宽广具有团队协作精神
+5.思维活跃、工作主动、有责任感，同时有较强的抗压以及独立思考能力
+6.优秀的分析问题，解决问题能力，乐于解决具有挑战性的问题</t>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
+    <t>51job</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>微软</t>
+  </si>
+  <si>
+    <t>百威</t>
+  </si>
+  <si>
+    <t>https://abinbev.taleo.net/</t>
+  </si>
+  <si>
+    <t>大众点评</t>
+  </si>
+  <si>
+    <t>http://campus.dianping.com/</t>
+  </si>
+  <si>
+    <t>邮箱，User@123</t>
   </si>
 </sst>
 </file>
@@ -297,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -308,6 +383,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -600,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1140,4 +1218,117 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="10" max="10" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H4" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HR.xlsx
+++ b/HR.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-yuqwe\Documents\GitHub\CV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="11370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="11370"/>
   </bookViews>
   <sheets>
-    <sheet name="All" sheetId="2" r:id="rId1"/>
-    <sheet name="rule" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="合并" sheetId="4" r:id="rId1"/>
+    <sheet name="All" sheetId="2" r:id="rId2"/>
+    <sheet name="rule" sheetId="1" r:id="rId3"/>
+    <sheet name="部分" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="130">
   <si>
     <t>No.</t>
   </si>
@@ -317,16 +318,156 @@
   <si>
     <t>邮箱，User@123</t>
   </si>
+  <si>
+    <t>携程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>助理产品经理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里巴巴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易游戏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>助理产品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱奇艺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优刻得</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品/管培</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Po</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>德州仪器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沧海</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>填</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>某培训项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>远景能源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务型产品经理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可口可乐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏宁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴滴快的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>等</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>填</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>honeywell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一汽大众</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuqing_fd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -334,7 +475,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -343,6 +484,20 @@
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -372,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -387,10 +542,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -414,7 +576,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -676,30 +838,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="8"/>
+    <col min="3" max="3" width="15.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="8"/>
+    <col min="5" max="5" width="10.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="10">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.375" customWidth="1"/>
+    <col min="4" max="4" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="5" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -743,7 +1175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -782,7 +1214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -812,7 +1244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -839,7 +1271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -875,7 +1307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -905,7 +1337,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -926,7 +1358,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -956,7 +1388,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -986,7 +1418,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1025,7 +1457,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1061,7 +1493,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1088,37 +1520,38 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:J1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -1149,7 +1582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1157,9 +1590,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1167,7 +1600,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -1175,7 +1608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1183,7 +1616,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1191,7 +1624,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1199,7 +1632,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1207,7 +1640,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1216,29 +1649,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" customWidth="1"/>
-    <col min="10" max="10" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.75" customWidth="1"/>
+    <col min="10" max="10" width="41.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -1270,7 +1704,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -1297,14 +1731,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>89</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -1313,7 +1747,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -1324,7 +1758,16 @@
         <v>94</v>
       </c>
     </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
     <hyperlink ref="H4" r:id="rId2"/>

--- a/HR.xlsx
+++ b/HR.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="11370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="11370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="合并" sheetId="4" r:id="rId1"/>
     <sheet name="All" sheetId="2" r:id="rId2"/>
     <sheet name="rule" sheetId="1" r:id="rId3"/>
     <sheet name="部分" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="133">
   <si>
     <t>No.</t>
   </si>
@@ -456,6 +457,18 @@
   </si>
   <si>
     <t>yuqing_fd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chinaHR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shouji</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -840,7 +853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1774,4 +1787,31 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HR.xlsx
+++ b/HR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-yuqwe\Documents\GitHub\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -480,7 +480,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -488,7 +488,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -500,7 +500,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -564,8 +564,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -589,7 +589,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -857,13 +857,13 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="8"/>
-    <col min="3" max="3" width="15.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="8"/>
-    <col min="5" max="5" width="10.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -1127,21 +1127,21 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.375" customWidth="1"/>
-    <col min="4" max="4" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="5" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1603,7 +1603,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1675,14 +1675,14 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.75" customWidth="1"/>
-    <col min="10" max="10" width="41.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="10" max="10" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1797,7 +1797,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
